--- a/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/actual_price_determination_from_CBIX_price/exporting_port_details-loading_rates.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/actual_price_determination_from_CBIX_price/exporting_port_details-loading_rates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,48 +473,48 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B2" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C2" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D2" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E2" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F2" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G2" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B3" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C3" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D3" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E3" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F3" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G3" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4">
@@ -565,117 +565,117 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B6" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C6" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D6" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E6" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F6" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G6" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B7" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C7" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D7" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E7" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F7" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G7" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B8" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C8" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D8" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E8" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F8" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G8" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B9" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C9" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D9" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E9" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F9" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G9" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B10" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C10" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D10" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E10" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F10" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G10" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11">
@@ -726,25 +726,25 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G13" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="14">
@@ -772,13 +772,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="B15" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="C15" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D15" t="n">
         <v>30000</v>
@@ -795,71 +795,71 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B16" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C16" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D16" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E16" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F16" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G16" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B17" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C17" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D17" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E17" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F17" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G17" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B18" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C18" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D18" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E18" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F18" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G18" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="19">
@@ -887,48 +887,48 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="B20" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="C20" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="D20" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="E20" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="F20" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="G20" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="B21" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C21" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="D21" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E21" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F21" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G21" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="22">
@@ -1002,48 +1002,48 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="B25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="D25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G25" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="B26" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="C26" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="D26" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="E26" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="F26" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="G26" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="27">
@@ -1094,94 +1094,94 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B29" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C29" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D29" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E29" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F29" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G29" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B30" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C30" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D30" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E30" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F30" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G30" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="B32" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C32" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="D32" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E32" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F32" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G32" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="33">
@@ -1209,117 +1209,117 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1370,140 +1370,209 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B44" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C44" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D44" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E44" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F44" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G44" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B46" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C46" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D46" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E46" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F46" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G46" t="n">
-        <v>30000</v>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>15000</v>
+      </c>
+      <c r="B47" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C47" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F47" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>40000</v>
+      </c>
+      <c r="B48" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C48" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E48" t="n">
+        <v>40000</v>
+      </c>
+      <c r="F48" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>40000</v>
+      </c>
+      <c r="B49" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C49" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E49" t="n">
+        <v>40000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
